--- a/甲方给的吹膜工序文档/B 下拉菜单文件/SOP-MFG-301-R02A 吹膜生产日报表_吴.xlsx
+++ b/甲方给的吹膜工序文档/B 下拉菜单文件/SOP-MFG-301-R02A 吹膜生产日报表_吴.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QMS File-20160301\SOP-MFG-3 生产岗位记录\301. 吹膜岗位记录表20160301\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitpro\mitprodoc\甲方给的吹膜工序文档\B 下拉菜单文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,11 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
-  <si>
-    <t>生产指令：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>生产日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -331,45 +327,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>白班</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>□</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-夜班</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>□</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>日报表是后续供料记录与生产记录的一个汇总表格，表格中增加部分计算信息。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产指令：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -649,98 +611,98 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1048,8 +1010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1066,7 +1028,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -1080,84 +1042,84 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-      <c r="N1" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="O1" s="14"/>
+      <c r="N1" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="42"/>
     </row>
     <row r="2" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
+      <c r="A2" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
       <c r="H2" s="9"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
       <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
       <c r="I3" s="12"/>
       <c r="J3" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="3" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" s="3" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="16" t="s">
+      <c r="C4" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="23" t="s">
+      <c r="N4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="N4" s="19" t="s">
+      <c r="O4" s="16" t="s">
         <v>15</v>
-      </c>
-      <c r="O4" s="19" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1165,15 +1127,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>33</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C5" s="39"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="31"/>
+      <c r="G5" s="28"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="6"/>
@@ -1188,9 +1148,9 @@
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="43"/>
+        <v>3</v>
+      </c>
+      <c r="C6" s="39"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="8"/>
@@ -1209,9 +1169,9 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="43"/>
+        <v>3</v>
+      </c>
+      <c r="C7" s="39"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="8"/>
@@ -1230,9 +1190,9 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="43"/>
+        <v>3</v>
+      </c>
+      <c r="C8" s="39"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
@@ -1251,9 +1211,9 @@
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="43"/>
+        <v>3</v>
+      </c>
+      <c r="C9" s="39"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
@@ -1272,9 +1232,9 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="43"/>
+        <v>3</v>
+      </c>
+      <c r="C10" s="39"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
@@ -1293,9 +1253,9 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="43"/>
+        <v>3</v>
+      </c>
+      <c r="C11" s="39"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="8"/>
@@ -1314,9 +1274,9 @@
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="43"/>
+        <v>3</v>
+      </c>
+      <c r="C12" s="39"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="8"/>
@@ -1335,9 +1295,9 @@
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="43"/>
+        <v>3</v>
+      </c>
+      <c r="C13" s="39"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="8"/>
@@ -1356,9 +1316,9 @@
         <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="43"/>
+        <v>3</v>
+      </c>
+      <c r="C14" s="39"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="8"/>
@@ -1377,9 +1337,9 @@
         <v>11</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="43"/>
+        <v>3</v>
+      </c>
+      <c r="C15" s="39"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="8"/>
@@ -1394,15 +1354,15 @@
       <c r="O15" s="6"/>
     </row>
     <row r="16" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="35">
+      <c r="A16" s="32">
         <v>12</v>
       </c>
-      <c r="B16" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="43"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
+      <c r="B16" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="39"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -1415,68 +1375,68 @@
       <c r="O16" s="6"/>
     </row>
     <row r="17" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="28"/>
-      <c r="B17" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="38" t="s">
+      <c r="A17" s="25"/>
+      <c r="B17" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="26"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="J17" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="K17" s="41" t="s">
+      <c r="M17" s="38" t="s">
         <v>23</v>
-      </c>
-      <c r="L17" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="M17" s="41" t="s">
-        <v>24</v>
       </c>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
     </row>
     <row r="18" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="33"/>
+      <c r="A18" s="30"/>
       <c r="B18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="42"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="43"/>
+      <c r="O18" s="43"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="D20" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
